--- a/medium alphabet/test_results_09_07_v2.xlsx
+++ b/medium alphabet/test_results_09_07_v2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="6120"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="6120" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="klTest" sheetId="2" r:id="rId1"/>
@@ -24,6 +24,29 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="6">
+  <si>
+    <t>gamma\log2(delta)</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>pfa</t>
+  </si>
+  <si>
+    <t>pmd</t>
+  </si>
+  <si>
+    <t>threshold</t>
+  </si>
+  <si>
+    <t>log2(threshold)</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -339,15 +362,65 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:N17"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>-9</v>
+      </c>
+      <c r="C1">
+        <v>-8.5</v>
+      </c>
+      <c r="D1">
+        <v>-8</v>
+      </c>
+      <c r="E1">
+        <v>-7.5</v>
+      </c>
+      <c r="F1">
+        <v>-7</v>
+      </c>
+      <c r="G1">
+        <v>-6.5</v>
+      </c>
+      <c r="H1">
+        <v>-6</v>
+      </c>
+      <c r="I1">
+        <v>-5.5</v>
+      </c>
+      <c r="J1">
+        <v>-5</v>
+      </c>
+      <c r="K1">
+        <v>-4.5</v>
+      </c>
+      <c r="L1">
+        <v>-4</v>
+      </c>
+      <c r="M1">
+        <v>-3.5</v>
+      </c>
+      <c r="N1">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0.1</v>
+      </c>
       <c r="B2">
         <v>0.28999999999999998</v>
       </c>
@@ -388,7 +461,10 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0.15</v>
+      </c>
       <c r="B3">
         <v>0.19</v>
       </c>
@@ -429,7 +505,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0.2</v>
+      </c>
       <c r="B4">
         <v>0.17399999999999999</v>
       </c>
@@ -470,7 +549,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.25</v>
+      </c>
       <c r="B5">
         <v>0.109</v>
       </c>
@@ -511,7 +593,10 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0.3</v>
+      </c>
       <c r="B6">
         <v>7.5999999999999998E-2</v>
       </c>
@@ -552,7 +637,10 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0.35</v>
+      </c>
       <c r="B7">
         <v>3.4000000000000002E-2</v>
       </c>
@@ -593,7 +681,10 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0.4</v>
+      </c>
       <c r="B8">
         <v>2.3E-2</v>
       </c>
@@ -634,7 +725,15 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0.1</v>
+      </c>
       <c r="B11">
         <v>0.41199999999999998</v>
       </c>
@@ -675,7 +774,10 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>0.15</v>
+      </c>
       <c r="B12">
         <v>0.50900000000000001</v>
       </c>
@@ -716,7 +818,10 @@
         <v>0.93500000000000005</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0.2</v>
+      </c>
       <c r="B13">
         <v>0.57099999999999995</v>
       </c>
@@ -757,7 +862,10 @@
         <v>0.94699999999999995</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>0.25</v>
+      </c>
       <c r="B14">
         <v>0.66400000000000003</v>
       </c>
@@ -798,7 +906,10 @@
         <v>0.95399999999999996</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>0.3</v>
+      </c>
       <c r="B15">
         <v>0.746</v>
       </c>
@@ -839,7 +950,10 @@
         <v>0.95699999999999996</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>0.35</v>
+      </c>
       <c r="B16">
         <v>0.79500000000000004</v>
       </c>
@@ -880,7 +994,10 @@
         <v>0.96799999999999997</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>0.4</v>
+      </c>
       <c r="B17">
         <v>0.87</v>
       </c>
@@ -928,15 +1045,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C8"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B1" sqref="B1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0.1</v>
+      </c>
       <c r="B2">
         <v>0.307</v>
       </c>
@@ -944,7 +1075,10 @@
         <v>0.39300000000000002</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0.15</v>
+      </c>
       <c r="B3">
         <v>0.23300000000000001</v>
       </c>
@@ -952,7 +1086,10 @@
         <v>0.49399999999999999</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0.2</v>
+      </c>
       <c r="B4">
         <v>0.17</v>
       </c>
@@ -960,7 +1097,10 @@
         <v>0.58399999999999996</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.25</v>
+      </c>
       <c r="B5">
         <v>0.10299999999999999</v>
       </c>
@@ -968,7 +1108,10 @@
         <v>0.66300000000000003</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0.3</v>
+      </c>
       <c r="B6">
         <v>7.2999999999999995E-2</v>
       </c>
@@ -976,7 +1119,10 @@
         <v>0.73199999999999998</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0.35</v>
+      </c>
       <c r="B7">
         <v>4.1000000000000002E-2</v>
       </c>
@@ -984,7 +1130,10 @@
         <v>0.78400000000000003</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0.4</v>
+      </c>
       <c r="B8">
         <v>2.1999999999999999E-2</v>
       </c>
@@ -999,15 +1148,29 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C16"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B1" sqref="B1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>-2</v>
+      </c>
       <c r="B2">
         <v>2.4E-2</v>
       </c>
@@ -1015,7 +1178,10 @@
         <v>0.86399999999999999</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>-1.5</v>
+      </c>
       <c r="B3">
         <v>1.2999999999999999E-2</v>
       </c>
@@ -1023,7 +1189,10 @@
         <v>0.89300000000000002</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>-1</v>
+      </c>
       <c r="B4">
         <v>8.9999999999999993E-3</v>
       </c>
@@ -1031,7 +1200,10 @@
         <v>0.92200000000000004</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>-0.5</v>
+      </c>
       <c r="B5">
         <v>3.0000000000000001E-3</v>
       </c>
@@ -1039,7 +1211,10 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0</v>
+      </c>
       <c r="B6">
         <v>1E-3</v>
       </c>
@@ -1047,7 +1222,10 @@
         <v>0.97799999999999998</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0.5</v>
+      </c>
       <c r="B7">
         <v>0</v>
       </c>
@@ -1055,7 +1233,10 @@
         <v>0.99099999999999999</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
       <c r="B8">
         <v>0</v>
       </c>
@@ -1063,7 +1244,10 @@
         <v>0.99199999999999999</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1.5</v>
+      </c>
       <c r="B9">
         <v>0</v>
       </c>
@@ -1071,7 +1255,10 @@
         <v>0.997</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2</v>
+      </c>
       <c r="B10">
         <v>0</v>
       </c>
@@ -1079,7 +1266,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2.5</v>
+      </c>
       <c r="B11">
         <v>0</v>
       </c>
@@ -1087,7 +1277,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>3</v>
+      </c>
       <c r="B12">
         <v>0</v>
       </c>
@@ -1095,7 +1288,10 @@
         <v>0.999</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>3.5</v>
+      </c>
       <c r="B13">
         <v>0</v>
       </c>
@@ -1103,7 +1299,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>4</v>
+      </c>
       <c r="B14">
         <v>0</v>
       </c>
@@ -1111,7 +1310,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>4.5</v>
+      </c>
       <c r="B15">
         <v>0</v>
       </c>
@@ -1119,7 +1321,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>5</v>
+      </c>
       <c r="B16">
         <v>0</v>
       </c>
@@ -1134,15 +1339,32 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C20"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
       <c r="B2">
         <v>0.499</v>
       </c>
@@ -1150,7 +1372,10 @@
         <v>0.155</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1.5</v>
+      </c>
       <c r="B3">
         <v>0.41299999999999998</v>
       </c>
@@ -1158,7 +1383,10 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
       <c r="B4">
         <v>0.33400000000000002</v>
       </c>
@@ -1166,7 +1394,10 @@
         <v>0.27900000000000003</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2.5</v>
+      </c>
       <c r="B5">
         <v>0.248</v>
       </c>
@@ -1174,7 +1405,10 @@
         <v>0.30199999999999999</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
       <c r="B6">
         <v>0.20100000000000001</v>
       </c>
@@ -1182,7 +1416,10 @@
         <v>0.377</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>3.5</v>
+      </c>
       <c r="B7">
         <v>0.13600000000000001</v>
       </c>
@@ -1190,7 +1427,10 @@
         <v>0.40699999999999997</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>4</v>
+      </c>
       <c r="B8">
         <v>0.155</v>
       </c>
@@ -1198,7 +1438,10 @@
         <v>0.47099999999999997</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>4.5</v>
+      </c>
       <c r="B9">
         <v>9.9000000000000005E-2</v>
       </c>
@@ -1206,7 +1449,10 @@
         <v>0.53600000000000003</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>5</v>
+      </c>
       <c r="B10">
         <v>7.0999999999999994E-2</v>
       </c>
@@ -1214,7 +1460,10 @@
         <v>0.56699999999999995</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>5.5</v>
+      </c>
       <c r="B11">
         <v>5.8000000000000003E-2</v>
       </c>
@@ -1222,7 +1471,10 @@
         <v>0.61399999999999999</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>6</v>
+      </c>
       <c r="B12">
         <v>4.8000000000000001E-2</v>
       </c>
@@ -1230,7 +1482,10 @@
         <v>0.66400000000000003</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>6.5</v>
+      </c>
       <c r="B13">
         <v>3.2000000000000001E-2</v>
       </c>
@@ -1238,7 +1493,10 @@
         <v>0.70299999999999996</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>7</v>
+      </c>
       <c r="B14">
         <v>2.1999999999999999E-2</v>
       </c>
@@ -1246,7 +1504,10 @@
         <v>0.72899999999999998</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>7.5</v>
+      </c>
       <c r="B15">
         <v>0.02</v>
       </c>
@@ -1254,7 +1515,10 @@
         <v>0.76400000000000001</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>8</v>
+      </c>
       <c r="B16">
         <v>1.0999999999999999E-2</v>
       </c>
@@ -1262,7 +1526,10 @@
         <v>0.78600000000000003</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>8.5</v>
+      </c>
       <c r="B17">
         <v>1.6E-2</v>
       </c>
@@ -1270,7 +1537,10 @@
         <v>0.80900000000000005</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>9</v>
+      </c>
       <c r="B18">
         <v>6.0000000000000001E-3</v>
       </c>
@@ -1278,7 +1548,10 @@
         <v>0.84399999999999997</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>9.5</v>
+      </c>
       <c r="B19">
         <v>8.9999999999999993E-3</v>
       </c>
@@ -1286,7 +1559,10 @@
         <v>0.85799999999999998</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>10</v>
+      </c>
       <c r="B20">
         <v>6.0000000000000001E-3</v>
       </c>
